--- a/countries.xlsx
+++ b/countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kebensteiner/Documents/code/country-sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42DCD538-5CBD-4444-A70B-CF4B22086383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728634E6-39D2-1B4B-BED7-3F37E85D3152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="840" windowWidth="27640" windowHeight="16940" xr2:uid="{A7F0FCD5-6878-CA4B-9442-226945CB7813}"/>
+    <workbookView xWindow="1860" yWindow="840" windowWidth="42340" windowHeight="24900" xr2:uid="{A7F0FCD5-6878-CA4B-9442-226945CB7813}"/>
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1543">
   <si>
     <t>iso2</t>
   </si>
@@ -295,9 +295,6 @@
     <t xml:space="preserve">Antarctique </t>
   </si>
   <si>
-    <t>l'Antartida</t>
-  </si>
-  <si>
     <t>ANTARCTICA</t>
   </si>
   <si>
@@ -646,9 +643,6 @@
     <t>Bouvet Island</t>
   </si>
   <si>
-    <t>Bouvet (l'Île)</t>
-  </si>
-  <si>
     <t>Isola Bouvet</t>
   </si>
   <si>
@@ -688,12 +682,6 @@
     <t>British Indian Ocean Territory (the)</t>
   </si>
   <si>
-    <t>Indien (le Territoire britannique de l'océan)</t>
-  </si>
-  <si>
-    <t>Territorio Britannico dell'Oceano Indiano</t>
-  </si>
-  <si>
     <t>BRITISH INDIAN OCEAN TERRITORY</t>
   </si>
   <si>
@@ -931,9 +919,6 @@
     <t>Christmas Island</t>
   </si>
   <si>
-    <t>Christmas (l'Île)</t>
-  </si>
-  <si>
     <t>Isola di Natale</t>
   </si>
   <si>
@@ -1087,18 +1072,6 @@
     <t>Elfenbeinküste</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire </t>
-  </si>
-  <si>
-    <t>Costa d'Avorio</t>
-  </si>
-  <si>
-    <t>COTE D'IVOIRE</t>
-  </si>
-  <si>
     <t>CU</t>
   </si>
   <si>
@@ -1687,9 +1660,6 @@
     <t>Heard Island and McDonald Islands</t>
   </si>
   <si>
-    <t>Heard-et-Îles MacDonald (l'Île)</t>
-  </si>
-  <si>
     <t>Isole Heard e McDonald</t>
   </si>
   <si>
@@ -1795,9 +1765,6 @@
     <t>Iran (Islamic Republic of)</t>
   </si>
   <si>
-    <t>Iran (République Islamique d')</t>
-  </si>
-  <si>
     <t>IRAN</t>
   </si>
   <si>
@@ -1987,18 +1954,12 @@
     <t>Korea, Dem. Volksrepublik</t>
   </si>
   <si>
-    <t>Korea (the Democratic People's Republic of)</t>
-  </si>
-  <si>
     <t>Corée (la République populaire démocratique de)</t>
   </si>
   <si>
     <t>Corea, Repubblica Popolare Democratic</t>
   </si>
   <si>
-    <t>KOREA, DEMOCRATIC PEOPLE'S REPUBLIC OF</t>
-  </si>
-  <si>
     <t>KR</t>
   </si>
   <si>
@@ -2074,15 +2035,9 @@
     <t>Laos</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic (the)</t>
-  </si>
-  <si>
     <t>Lao (la République démocratique populaire)</t>
   </si>
   <si>
-    <t>LAO PEOPLE'S DEMOCRATIC REPUBLIC</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
@@ -2701,9 +2656,6 @@
     <t>Norfolk Island</t>
   </si>
   <si>
-    <t>Norfolk (l'Île)</t>
-  </si>
-  <si>
     <t>Isola Norfolk</t>
   </si>
   <si>
@@ -3058,9 +3010,6 @@
     <t>Sainte-Hélène, Ascension et Tristan da Cunha</t>
   </si>
   <si>
-    <t>Sant'Elena, Ascensione e Tristan da Cunha</t>
-  </si>
-  <si>
     <t>SAINT HELENA, ASCENSION AND TRISTAN DA CUNHA</t>
   </si>
   <si>
@@ -3508,9 +3457,6 @@
     <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
-    <t xml:space="preserve">Svalbard et l'Île Jan Mayen </t>
-  </si>
-  <si>
     <t>Svalbard e Jan Mayen</t>
   </si>
   <si>
@@ -3889,9 +3835,6 @@
     <t xml:space="preserve">Îles mineures éloignées des États-Unis </t>
   </si>
   <si>
-    <t>Isole Minori Esterne degli Stati Uniti d'America</t>
-  </si>
-  <si>
     <t>UNITED STATES MINOR OUTLYING ISLANDS</t>
   </si>
   <si>
@@ -3907,12 +3850,6 @@
     <t>United States of America</t>
   </si>
   <si>
-    <t xml:space="preserve">États-Unis d'Amérique </t>
-  </si>
-  <si>
-    <t>Stati Uniti d'America</t>
-  </si>
-  <si>
     <t>UNITED STATES</t>
   </si>
   <si>
@@ -4687,9 +4624,6 @@
     <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
   </si>
   <si>
-    <t xml:space="preserve">Royaume-Uni de Grande-Bretagne et d'Irlande du Nord </t>
-  </si>
-  <si>
     <t>Regno Unito</t>
   </si>
   <si>
@@ -4700,6 +4634,75 @@
   </si>
   <si>
     <t>Marhshall Islands</t>
+  </si>
+  <si>
+    <t>Französischen Süd- und Antarktisgebiete</t>
+  </si>
+  <si>
+    <t>l Antartida</t>
+  </si>
+  <si>
+    <t>Bouvet (l Île)</t>
+  </si>
+  <si>
+    <t>Indien (le Territoire britannique de l océan)</t>
+  </si>
+  <si>
+    <t>Territorio Britannico dell Oceano Indiano</t>
+  </si>
+  <si>
+    <t>Christmas (l Île)</t>
+  </si>
+  <si>
+    <t>Côte d Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d Ivoire </t>
+  </si>
+  <si>
+    <t>Costa d Avorio</t>
+  </si>
+  <si>
+    <t>COTE D IVOIRE</t>
+  </si>
+  <si>
+    <t>Heard-et-Îles MacDonald (l Île)</t>
+  </si>
+  <si>
+    <t>Iran (République Islamique d )</t>
+  </si>
+  <si>
+    <t>Korea (the Democratic People s Republic of)</t>
+  </si>
+  <si>
+    <t>KOREA, DEMOCRATIC PEOPLE S REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>Lao People s Democratic Republic (the)</t>
+  </si>
+  <si>
+    <t>LAO PEOPLE S DEMOCRATIC REPUBLIC</t>
+  </si>
+  <si>
+    <t>Norfolk (l Île)</t>
+  </si>
+  <si>
+    <t>Sant Elena, Ascensione e Tristan da Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svalbard et l Île Jan Mayen </t>
+  </si>
+  <si>
+    <t>Isole Minori Esterne degli Stati Uniti d America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">États-Unis d Amérique </t>
+  </si>
+  <si>
+    <t>Stati Uniti d America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royaume-Uni de Grande-Bretagne et d Irlande du Nord </t>
   </si>
 </sst>
 </file>
@@ -5120,15 +5123,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396C9245-A5DE-9248-A751-6937B70DF7A4}">
   <dimension ref="A1:O254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="K217" sqref="K217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4.33203125" customWidth="1"/>
     <col min="3" max="7" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
@@ -5630,10 +5634,10 @@
         <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -5663,25 +5667,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" t="s">
-        <v>81</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5711,25 +5715,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>85</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5759,25 +5763,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>90</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>91</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
         <v>92</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5807,25 +5811,25 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
         <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" t="s">
-        <v>97</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -5855,25 +5859,25 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>101</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
         <v>102</v>
-      </c>
-      <c r="F16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" t="s">
-        <v>103</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -5903,25 +5907,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>106</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>107</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>109</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5951,25 +5955,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
         <v>113</v>
       </c>
-      <c r="D18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" t="s">
-        <v>116</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5999,25 +6003,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" t="s">
         <v>120</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>121</v>
-      </c>
-      <c r="G19" t="s">
-        <v>122</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -6047,25 +6051,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" t="s">
         <v>124</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
         <v>125</v>
       </c>
-      <c r="D20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" t="s">
-        <v>127</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -6095,25 +6099,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" t="s">
         <v>129</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
         <v>130</v>
       </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
         <v>131</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" t="s">
-        <v>132</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -6143,25 +6147,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" t="s">
         <v>134</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
         <v>135</v>
       </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>137</v>
-      </c>
-      <c r="G22" t="s">
-        <v>138</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6191,25 +6195,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" t="s">
         <v>140</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
         <v>141</v>
       </c>
-      <c r="D23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" t="s">
         <v>142</v>
-      </c>
-      <c r="F23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" t="s">
-        <v>143</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -6239,25 +6243,25 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" t="s">
         <v>145</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
         <v>146</v>
       </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
         <v>147</v>
-      </c>
-      <c r="F24" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" t="s">
-        <v>148</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -6287,25 +6291,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" t="s">
         <v>150</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>152</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>153</v>
-      </c>
-      <c r="G25" t="s">
-        <v>154</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -6335,25 +6339,25 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" t="s">
         <v>156</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
         <v>157</v>
       </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
         <v>158</v>
-      </c>
-      <c r="F26" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" t="s">
-        <v>159</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -6383,25 +6387,25 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" t="s">
         <v>161</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>162</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>163</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" t="s">
         <v>164</v>
-      </c>
-      <c r="F27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" t="s">
-        <v>165</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -6431,25 +6435,25 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -6479,25 +6483,25 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" t="s">
         <v>175</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>176</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>177</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>178</v>
-      </c>
-      <c r="G29" t="s">
-        <v>179</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -6527,25 +6531,25 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" t="s">
         <v>182</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>183</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" t="s">
         <v>184</v>
-      </c>
-      <c r="F30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" t="s">
-        <v>185</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -6575,25 +6579,25 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -6623,25 +6627,25 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D32" t="s">
         <v>194</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>195</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>196</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>197</v>
-      </c>
-      <c r="F32" t="s">
-        <v>198</v>
-      </c>
-      <c r="G32" t="s">
-        <v>199</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -6671,25 +6675,25 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -6719,25 +6723,25 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="G34" t="s">
         <v>208</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" t="s">
-        <v>212</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -6767,25 +6771,25 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" t="s">
         <v>213</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" t="s">
-        <v>217</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -6815,25 +6819,25 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
         <v>218</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" t="s">
-        <v>220</v>
-      </c>
-      <c r="D36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E36" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" t="s">
-        <v>222</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -6863,25 +6867,25 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="G37" t="s">
         <v>224</v>
-      </c>
-      <c r="C37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F37" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" t="s">
-        <v>228</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -6911,25 +6915,25 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" t="s">
         <v>229</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="F38" t="s">
         <v>230</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
         <v>231</v>
-      </c>
-      <c r="D38" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" t="s">
-        <v>233</v>
-      </c>
-      <c r="F38" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" t="s">
-        <v>235</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -6959,25 +6963,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="F39" t="s">
         <v>237</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" t="s">
         <v>238</v>
-      </c>
-      <c r="D39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" t="s">
-        <v>240</v>
-      </c>
-      <c r="F39" t="s">
-        <v>241</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -7007,25 +7011,25 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="F40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
         <v>244</v>
-      </c>
-      <c r="C40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" t="s">
-        <v>247</v>
-      </c>
-      <c r="F40" t="s">
-        <v>246</v>
-      </c>
-      <c r="G40" t="s">
-        <v>248</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -7055,25 +7059,25 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="F41" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" t="s">
         <v>250</v>
-      </c>
-      <c r="C41" t="s">
-        <v>251</v>
-      </c>
-      <c r="D41" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F41" t="s">
-        <v>251</v>
-      </c>
-      <c r="G41" t="s">
-        <v>254</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -7103,25 +7107,25 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="G42" t="s">
         <v>257</v>
-      </c>
-      <c r="D42" t="s">
-        <v>258</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" t="s">
-        <v>261</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -7151,25 +7155,25 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="F43" t="s">
         <v>263</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G43" t="s">
         <v>264</v>
-      </c>
-      <c r="D43" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" t="s">
-        <v>267</v>
-      </c>
-      <c r="G43" t="s">
-        <v>268</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -7199,25 +7203,25 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" t="s">
         <v>269</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="G44" t="s">
         <v>270</v>
-      </c>
-      <c r="C44" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" t="s">
-        <v>271</v>
-      </c>
-      <c r="E44" t="s">
-        <v>272</v>
-      </c>
-      <c r="F44" t="s">
-        <v>273</v>
-      </c>
-      <c r="G44" t="s">
-        <v>274</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -7247,25 +7251,25 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="G45" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E45" t="s">
-        <v>278</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -7295,25 +7299,25 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="G46" t="s">
         <v>282</v>
-      </c>
-      <c r="C46" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" t="s">
-        <v>284</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G46" t="s">
-        <v>287</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -7343,25 +7347,25 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -7391,25 +7395,25 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" t="s">
+        <v>293</v>
+      </c>
+      <c r="E48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" t="s">
+        <v>293</v>
+      </c>
+      <c r="G48" t="s">
         <v>295</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" t="s">
-        <v>298</v>
-      </c>
-      <c r="E48" t="s">
-        <v>299</v>
-      </c>
-      <c r="F48" t="s">
-        <v>298</v>
-      </c>
-      <c r="G48" t="s">
-        <v>300</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -7439,25 +7443,25 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" t="s">
+        <v>300</v>
+      </c>
+      <c r="F49" t="s">
         <v>301</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="G49" t="s">
         <v>302</v>
-      </c>
-      <c r="C49" t="s">
-        <v>303</v>
-      </c>
-      <c r="D49" t="s">
-        <v>304</v>
-      </c>
-      <c r="E49" t="s">
-        <v>305</v>
-      </c>
-      <c r="F49" t="s">
-        <v>306</v>
-      </c>
-      <c r="G49" t="s">
-        <v>307</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -7487,25 +7491,25 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F50" t="s">
         <v>308</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="G50" t="s">
         <v>309</v>
-      </c>
-      <c r="C50" t="s">
-        <v>310</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F50" t="s">
-        <v>313</v>
-      </c>
-      <c r="G50" t="s">
-        <v>314</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -7535,25 +7539,25 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>310</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="G51" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -7583,25 +7587,25 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" t="s">
         <v>322</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="G52" t="s">
         <v>323</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D52" t="s">
-        <v>325</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F52" t="s">
-        <v>327</v>
-      </c>
-      <c r="G52" t="s">
-        <v>328</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -7631,25 +7635,25 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D53" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F53" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G53" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -7679,25 +7683,25 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D54" t="s">
-        <v>337</v>
+        <v>1526</v>
       </c>
       <c r="E54" t="s">
-        <v>338</v>
+        <v>1527</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>339</v>
+        <v>1528</v>
       </c>
       <c r="G54" t="s">
-        <v>340</v>
+        <v>1529</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -7727,25 +7731,25 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D55" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E55" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F55" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G55" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -7775,25 +7779,25 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -7823,25 +7827,25 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E57" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G57" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -7871,25 +7875,25 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D58" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F58" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G58" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -7919,25 +7923,25 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F59" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G59" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -7967,25 +7971,25 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C60" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D60" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G60" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -8015,25 +8019,25 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C61" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D61" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F61" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G61" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -8063,25 +8067,25 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C62" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D62" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G62" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -8111,25 +8115,25 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C63" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D63" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E63" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F63" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G63" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -8159,25 +8163,25 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C64" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D64" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F64" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G64" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -8207,25 +8211,25 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -8255,25 +8259,25 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C66" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -8303,25 +8307,25 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C67" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G67" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -8351,25 +8355,25 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G68" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -8399,25 +8403,25 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C69" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D69" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E69" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F69" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G69" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -8447,25 +8451,25 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C70" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D70" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E70" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F70" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G70" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -8495,25 +8499,25 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C71" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D71" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="F71" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G71" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -8543,23 +8547,25 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>439</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1520</v>
+      </c>
       <c r="D72" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -8589,25 +8595,25 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C73" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D73" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E73" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F73" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G73" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -8637,25 +8643,25 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C74" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D74" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E74" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F74" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G74" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -8685,25 +8691,25 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C75" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D75" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E75" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F75" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G75" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -8733,25 +8739,25 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C76" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D76" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E76" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F76" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G76" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -8781,25 +8787,25 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D77" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E77" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F77" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G77" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -8829,25 +8835,25 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C78" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D78" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E78" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F78" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="G78" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -8877,25 +8883,25 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C79" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D79" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E79" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F79" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G79" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -8925,25 +8931,25 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C80" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D80" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E80" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F80" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G80" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -8973,25 +8979,25 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C81" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D81" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E81" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F81" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G81" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -9021,25 +9027,25 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C82" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="D82" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="E82" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F82" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G82" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -9069,25 +9075,25 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C83" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D83" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F83" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -9117,25 +9123,25 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E84" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F84" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -9165,25 +9171,25 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C85" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D85" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E85" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F85" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G85" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -9213,25 +9219,25 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C86" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D86" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="E86" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F86" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G86" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -9261,25 +9267,25 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C87" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D87" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="E87" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F87" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G87" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -9309,25 +9315,25 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>537</v>
+        <v>1530</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -9357,25 +9363,25 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C89" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D89" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E89" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F89" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G89" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -9405,25 +9411,25 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C90" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D90" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F90" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G90" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -9453,25 +9459,25 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C91" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D91" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E91" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F91" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G91" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -9501,25 +9507,25 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C92" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D92" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E92" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F92" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G92" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9549,25 +9555,25 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C93" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D93" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E93" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F93" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G93" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9597,25 +9603,25 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C94" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>573</v>
+        <v>1531</v>
       </c>
       <c r="F94" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G94" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -9645,25 +9651,25 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C95" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D95" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="E95" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F95" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G95" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9693,25 +9699,25 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C96" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D96" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="G96" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9741,25 +9747,25 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C97" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D97" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E97" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="F97" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="G97" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9789,25 +9795,25 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C98" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D98" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="E98" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F98" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G98" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9837,25 +9843,25 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C99" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D99" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E99" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F99" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G99" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9885,25 +9891,25 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C100" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D100" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="E100" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F100" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G100" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9933,25 +9939,25 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C101" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D101" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="E101" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="F101" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="G101" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9981,25 +9987,25 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C102" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D102" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="E102" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F102" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G102" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -10029,25 +10035,25 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C103" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D103" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E103" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="F103" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="G103" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10077,25 +10083,25 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C104" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D104" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E104" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="F104" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G104" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10125,25 +10131,25 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="C105" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>637</v>
+        <v>1532</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="F105" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="G105" t="s">
-        <v>640</v>
+        <v>1533</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10173,25 +10179,25 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="C106" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F106" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G106" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10221,19 +10227,19 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10263,25 +10269,25 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="C108" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="D108" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="F108" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="G108" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10311,25 +10317,25 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C109" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D109" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="E109" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F109" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="G109" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10359,25 +10365,25 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C110" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>666</v>
+        <v>1534</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="F110" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>668</v>
+        <v>1535</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10407,25 +10413,25 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="C111" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="D111" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="E111" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="F111" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="G111" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10455,25 +10461,25 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="C112" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="D112" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="E112" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F112" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="G112" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10503,25 +10509,25 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="C113" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="D113" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="E113" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="F113" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="G113" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10551,25 +10557,25 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="C114" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="D114" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="E114" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="F114" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="G114" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10599,25 +10605,25 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="C115" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10647,25 +10653,25 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="C116" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="D116" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="E116" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F116" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="G116" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10695,25 +10701,25 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="C117" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="D117" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="E117" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="F117" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G117" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10743,25 +10749,25 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="C118" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="D118" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="E118" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F118" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G118" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10791,25 +10797,25 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="C119" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="D119" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="E119" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="F119" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="G119" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -10839,25 +10845,25 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="C120" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="D120" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="E120" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="F120" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="G120" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -10887,25 +10893,25 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="C121" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="D121" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="E121" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="F121" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="G121" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -10935,25 +10941,25 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -10983,25 +10989,25 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="C123" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="D123" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="E123" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F123" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="G123" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11031,25 +11037,25 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="C124" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="D124" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E124" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="F124" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="G124" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11079,25 +11085,25 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="C125" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="D125" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F125" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="G125" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11127,25 +11133,25 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="C126" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="D126" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="E126" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="G126" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11175,25 +11181,25 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="C127" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="D127" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="E127" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="F127" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="G127" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11223,25 +11229,25 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11271,25 +11277,25 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="C129" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="F129" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="G129" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -11319,25 +11325,25 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="C130" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="D130" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="E130" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="F130" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="G130" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -11367,25 +11373,25 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C131" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="D131" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="E131" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="F131" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="G131" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -11415,25 +11421,25 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="C132" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="D132" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="E132" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="F132" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="G132" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -11463,25 +11469,25 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="C133" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="D133" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="E133" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="F133" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="G133" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -11511,25 +11517,25 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="C134" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="D134" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="E134" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="F134" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="G134" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -11559,25 +11565,25 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="C135" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="D135" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="E135" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="F135" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="G135" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -11607,25 +11613,25 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="C136" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="D136" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="E136" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="F136" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="G136" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -11655,25 +11661,25 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="C137" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="D137" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="E137" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="F137" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="G137" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -11703,25 +11709,25 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="C138" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="D138" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="E138" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="F138" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="G138" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -11751,25 +11757,25 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="C139" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="D139" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="E139" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="F139" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="G139" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -11799,19 +11805,19 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="6" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -11841,25 +11847,25 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="C141" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="D141" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="E141" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="G141" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -11889,25 +11895,25 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="C142" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="D142" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="E142" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="G142" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -11937,25 +11943,25 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="C143" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="D143" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="E143" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="F143" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="G143" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -11985,25 +11991,25 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="C144" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="D144" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="E144" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="F144" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="G144" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -12033,25 +12039,25 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="C145" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="D145" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="E145" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="F145" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="G145" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -12081,25 +12087,25 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -12129,25 +12135,25 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>875</v>
+        <v>1536</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -12177,25 +12183,25 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="C148" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="F148" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="G148" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -12225,25 +12231,25 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="C149" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="D149" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="E149" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="F149" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G149" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -12273,25 +12279,25 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="C150" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="D150" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="E150" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="F150" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="G150" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -12321,25 +12327,25 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="C151" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="D151" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="E151" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="F151" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="G151" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -12369,25 +12375,25 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="C152" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="D152" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="F152" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="G152" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -12417,25 +12423,25 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="C153" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="D153" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="F153" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="G153" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -12465,25 +12471,25 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="C154" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="D154" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="E154" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="F154" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="G154" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -12513,25 +12519,25 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="C155" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="D155" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="E155" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="G155" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -12561,25 +12567,25 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="C156" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="D156" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="E156" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="F156" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="G156" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -12609,25 +12615,25 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="C157" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="D157" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="E157" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="F157" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="G157" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -12657,25 +12663,25 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="C158" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="D158" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="E158" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="F158" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="G158" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -12705,25 +12711,25 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="C159" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="D159" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="E159" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="F159" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="G159" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -12753,25 +12759,25 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="C160" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="D160" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="E160" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="G160" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -12801,25 +12807,25 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="C161" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="D161" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="E161" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="F161" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="G161" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -12849,25 +12855,25 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="E162" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -12897,25 +12903,25 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="C163" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="D163" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="E163" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="F163" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="G163" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -12945,25 +12951,25 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="C164" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="D164" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="F164" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="G164" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -12993,25 +12999,25 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="C165" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="D165" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="E165" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="G165" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -13041,25 +13047,25 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -13089,25 +13095,25 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>994</v>
+        <v>1537</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -13137,25 +13143,25 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="D168" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="F168" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="G168" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -13185,25 +13191,25 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="C169" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="D169" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="F169" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="G169" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -13233,25 +13239,25 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -13281,25 +13287,25 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="C171" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="D171" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="G171" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -13329,25 +13335,25 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="C172" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="D172" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="F172" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="G172" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -13377,25 +13383,25 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -13425,25 +13431,25 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="C174" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="D174" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="F174" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="G174" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -13473,25 +13479,25 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="C175" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="D175" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="F175" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="G175" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -13521,25 +13527,25 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="C176" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="D176" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="F176" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="G176" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -13569,25 +13575,25 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="C177" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="D177" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="E177" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="F177" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="G177" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -13617,25 +13623,25 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="C178" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="D178" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="E178" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="F178" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="G178" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -13665,19 +13671,19 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="5" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -13707,25 +13713,25 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="C180" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="D180" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="E180" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="F180" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="G180" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -13755,25 +13761,25 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="C181" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="D181" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="E181" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="F181" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="G181" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -13803,25 +13809,25 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="C182" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="D182" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="E182" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="F182" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="G182" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -13851,25 +13857,25 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -13899,25 +13905,25 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="C184" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="D184" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="F184" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="G184" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -13947,25 +13953,25 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="C185" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="D185" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="E185" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="F185" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="G185" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -13995,25 +14001,25 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="C186" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="D186" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="E186" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="F186" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="G186" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -14043,25 +14049,25 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -14091,25 +14097,25 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -14139,25 +14145,25 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="C189" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="D189" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="E189" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="F189" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="G189" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -14187,25 +14193,25 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="C190" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="D190" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="E190" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="F190" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="G190" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -14235,25 +14241,25 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="C191" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="D191" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="E191" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="F191" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="G191" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -14283,25 +14289,25 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1144</v>
+        <v>1538</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -14331,25 +14337,25 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="C193" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="D193" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="E193" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="F193" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="G193" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -14379,25 +14385,25 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
       <c r="C194" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="F194" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -14427,25 +14433,25 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="C195" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="F195" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="G195" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -14475,25 +14481,25 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="C196" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="D196" t="s">
-        <v>1171</v>
+        <v>1153</v>
       </c>
       <c r="E196" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
       <c r="G196" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -14523,25 +14529,25 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="C197" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="F197" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="G197" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -14571,25 +14577,25 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="C198" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="D198" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="E198" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="G198" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -14619,25 +14625,25 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="C199" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="G199" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -14667,25 +14673,25 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="C200" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="D200" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="E200" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="F200" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="G200" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -14715,25 +14721,25 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -14763,25 +14769,25 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="C202" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="D202" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="E202" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="F202" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="G202" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -14811,25 +14817,25 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="C203" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="D203" t="s">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="F203" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="G203" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -14859,25 +14865,25 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="C204" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="D204" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
       <c r="E204" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="F204" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
       <c r="G204" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -14907,25 +14913,25 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
       <c r="C205" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
       <c r="D205" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
       <c r="F205" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
       <c r="G205" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -14955,25 +14961,25 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
       <c r="C206" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="D206" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="E206" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="F206" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="G206" t="s">
-        <v>1235</v>
+        <v>1217</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -15003,25 +15009,25 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1236</v>
+        <v>1218</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1239</v>
+        <v>1221</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>1240</v>
+        <v>1222</v>
       </c>
       <c r="F207" t="s">
-        <v>1241</v>
+        <v>1223</v>
       </c>
       <c r="G207" t="s">
-        <v>1242</v>
+        <v>1224</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -15051,25 +15057,25 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1243</v>
+        <v>1225</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1244</v>
+        <v>1226</v>
       </c>
       <c r="C208" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="D208" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="E208" t="s">
-        <v>1246</v>
+        <v>1228</v>
       </c>
       <c r="F208" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="G208" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -15099,25 +15105,25 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1248</v>
+        <v>1230</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1249</v>
+        <v>1231</v>
       </c>
       <c r="C209" t="s">
-        <v>1250</v>
+        <v>1232</v>
       </c>
       <c r="D209" t="s">
-        <v>1250</v>
+        <v>1232</v>
       </c>
       <c r="E209" t="s">
-        <v>1251</v>
+        <v>1233</v>
       </c>
       <c r="F209" t="s">
-        <v>1250</v>
+        <v>1232</v>
       </c>
       <c r="G209" t="s">
-        <v>1252</v>
+        <v>1234</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -15147,25 +15153,25 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1253</v>
+        <v>1235</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1254</v>
+        <v>1236</v>
       </c>
       <c r="C210" t="s">
-        <v>1255</v>
+        <v>1237</v>
       </c>
       <c r="D210" t="s">
-        <v>1255</v>
+        <v>1237</v>
       </c>
       <c r="E210" t="s">
-        <v>1256</v>
+        <v>1238</v>
       </c>
       <c r="F210" t="s">
-        <v>1257</v>
+        <v>1239</v>
       </c>
       <c r="G210" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -15195,25 +15201,25 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1259</v>
+        <v>1241</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1260</v>
+        <v>1242</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1261</v>
+        <v>1243</v>
       </c>
       <c r="D211" t="s">
-        <v>1262</v>
+        <v>1244</v>
       </c>
       <c r="E211" t="s">
-        <v>1263</v>
+        <v>1245</v>
       </c>
       <c r="F211" t="s">
-        <v>1264</v>
+        <v>1246</v>
       </c>
       <c r="G211" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -15243,25 +15249,25 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>1266</v>
+        <v>1248</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1267</v>
+        <v>1249</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>1268</v>
+        <v>1250</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>1269</v>
+        <v>1251</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1270</v>
+        <v>1252</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>1271</v>
+        <v>1539</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>1272</v>
+        <v>1253</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -15291,25 +15297,25 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1273</v>
+        <v>1254</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1274</v>
+        <v>1255</v>
       </c>
       <c r="C213" t="s">
-        <v>1275</v>
+        <v>1256</v>
       </c>
       <c r="D213" t="s">
-        <v>1276</v>
+        <v>1257</v>
       </c>
       <c r="E213" t="s">
-        <v>1277</v>
+        <v>1540</v>
       </c>
       <c r="F213" t="s">
-        <v>1278</v>
+        <v>1541</v>
       </c>
       <c r="G213" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -15339,25 +15345,25 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1281</v>
+        <v>1260</v>
       </c>
       <c r="C214" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="D214" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="E214" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
       <c r="F214" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="G214" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -15387,25 +15393,25 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1285</v>
+        <v>1264</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="C215" t="s">
-        <v>1287</v>
+        <v>1266</v>
       </c>
       <c r="D215" t="s">
-        <v>1288</v>
+        <v>1267</v>
       </c>
       <c r="E215" t="s">
-        <v>1289</v>
+        <v>1268</v>
       </c>
       <c r="F215" t="s">
-        <v>1288</v>
+        <v>1267</v>
       </c>
       <c r="G215" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -15435,25 +15441,25 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="C216" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="D216" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="E216" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="F216" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="G216" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -15483,25 +15489,25 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1296</v>
+        <v>1275</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="C217" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="D217" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="F217" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="G217" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -15531,25 +15537,25 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1304</v>
+        <v>1283</v>
       </c>
       <c r="C218" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="D218" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="F218" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1307</v>
+        <v>1286</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -15579,25 +15585,25 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1308</v>
+        <v>1287</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="C219" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
       <c r="D219" t="s">
-        <v>1311</v>
+        <v>1290</v>
       </c>
       <c r="E219" t="s">
-        <v>1312</v>
+        <v>1291</v>
       </c>
       <c r="F219" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
       <c r="G219" t="s">
-        <v>1313</v>
+        <v>1292</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -15627,25 +15633,25 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1315</v>
+        <v>1294</v>
       </c>
       <c r="C220" t="s">
-        <v>1316</v>
+        <v>1295</v>
       </c>
       <c r="D220" t="s">
-        <v>1317</v>
+        <v>1296</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="F220" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="G220" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -15675,25 +15681,25 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1321</v>
+        <v>1300</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1322</v>
+        <v>1301</v>
       </c>
       <c r="C221" t="s">
-        <v>1323</v>
+        <v>1302</v>
       </c>
       <c r="D221" t="s">
-        <v>1324</v>
+        <v>1303</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
       <c r="F221" t="s">
-        <v>1326</v>
+        <v>1305</v>
       </c>
       <c r="G221" t="s">
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -15723,25 +15729,25 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -15771,25 +15777,25 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
       <c r="C223" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
       <c r="D223" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="E223" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="F223" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="G223" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -15819,25 +15825,25 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
       <c r="C224" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
       <c r="D224" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="E224" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="F224" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="G224" t="s">
-        <v>1346</v>
+        <v>1325</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -15867,25 +15873,25 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="C225" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="D225" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="E225" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="F225" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="G225" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -15915,25 +15921,25 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="C226" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="D226" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="E226" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="F226" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="G226" t="s">
-        <v>1357</v>
+        <v>1336</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -15963,25 +15969,25 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="C227" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="D227" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="E227" t="s">
-        <v>1362</v>
+        <v>1341</v>
       </c>
       <c r="F227" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="G227" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -16011,25 +16017,25 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="C228" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="D228" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="E228" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="F228" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="G228" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -16059,25 +16065,25 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="C229" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="D229" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="E229" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="F229" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
       <c r="G229" t="s">
-        <v>1377</v>
+        <v>1356</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -16107,25 +16113,25 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1378</v>
+        <v>1357</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1379</v>
+        <v>1358</v>
       </c>
       <c r="C230" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="D230" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="E230" t="s">
-        <v>1382</v>
+        <v>1361</v>
       </c>
       <c r="F230" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="G230" t="s">
-        <v>1384</v>
+        <v>1363</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -16155,25 +16161,25 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="C231" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -16203,25 +16209,25 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="C232" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="D232" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="E232" t="s">
-        <v>1396</v>
+        <v>1375</v>
       </c>
       <c r="F232" t="s">
-        <v>1397</v>
+        <v>1376</v>
       </c>
       <c r="G232" t="s">
-        <v>1398</v>
+        <v>1377</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -16251,25 +16257,25 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1399</v>
+        <v>1378</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1400</v>
+        <v>1379</v>
       </c>
       <c r="C233" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="D233" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
       <c r="E233" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="F233" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
       <c r="G233" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -16299,25 +16305,25 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1405</v>
+        <v>1384</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="C234" t="s">
-        <v>1407</v>
+        <v>1386</v>
       </c>
       <c r="D234" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="E234" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="F234" t="s">
-        <v>1410</v>
+        <v>1389</v>
       </c>
       <c r="G234" t="s">
-        <v>1411</v>
+        <v>1390</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -16347,25 +16353,25 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1412</v>
+        <v>1391</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="C235" t="s">
-        <v>1414</v>
+        <v>1393</v>
       </c>
       <c r="D235" t="s">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="E235" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="F235" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -16395,25 +16401,25 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="C236" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="D236" t="s">
-        <v>1422</v>
+        <v>1401</v>
       </c>
       <c r="E236" t="s">
-        <v>1423</v>
+        <v>1402</v>
       </c>
       <c r="F236" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="G236" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -16443,25 +16449,25 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="C237" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
       <c r="D237" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="E237" t="s">
-        <v>1430</v>
+        <v>1409</v>
       </c>
       <c r="F237" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
       <c r="G237" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -16491,25 +16497,25 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="C238" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="D238" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="E238" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="F238" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="G238" t="s">
-        <v>1439</v>
+        <v>1418</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -16539,25 +16545,25 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="C239" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="D239" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="E239" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="F239" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="G239" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -16587,25 +16593,25 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="C240" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
       <c r="D240" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
       <c r="E240" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="F240" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -16635,25 +16641,25 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1454</v>
+        <v>1433</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
       <c r="C241" t="s">
-        <v>1456</v>
+        <v>1435</v>
       </c>
       <c r="D241" t="s">
-        <v>1457</v>
+        <v>1436</v>
       </c>
       <c r="E241" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="F241" t="s">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="G241" t="s">
-        <v>1460</v>
+        <v>1439</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -16683,25 +16689,25 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
       <c r="C242" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="D242" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="E242" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
       <c r="F242" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="G242" t="s">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -16731,25 +16737,25 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1468</v>
+        <v>1447</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1469</v>
+        <v>1448</v>
       </c>
       <c r="C243" t="s">
-        <v>1470</v>
+        <v>1449</v>
       </c>
       <c r="D243" t="s">
-        <v>1471</v>
+        <v>1450</v>
       </c>
       <c r="E243" t="s">
-        <v>1472</v>
+        <v>1451</v>
       </c>
       <c r="F243" t="s">
-        <v>1473</v>
+        <v>1452</v>
       </c>
       <c r="G243" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -16779,25 +16785,25 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1476</v>
+        <v>1455</v>
       </c>
       <c r="C244" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
       <c r="D244" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
       <c r="E244" t="s">
-        <v>1478</v>
+        <v>1457</v>
       </c>
       <c r="F244" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
       <c r="G244" t="s">
-        <v>1479</v>
+        <v>1458</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -16827,25 +16833,25 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1480</v>
+        <v>1459</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="C245" t="s">
-        <v>1482</v>
+        <v>1461</v>
       </c>
       <c r="D245" t="s">
-        <v>1483</v>
+        <v>1462</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>1484</v>
+        <v>1463</v>
       </c>
       <c r="F245" t="s">
-        <v>1485</v>
+        <v>1464</v>
       </c>
       <c r="G245" t="s">
-        <v>1486</v>
+        <v>1465</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -16875,25 +16881,25 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="C246" t="s">
-        <v>1489</v>
+        <v>1468</v>
       </c>
       <c r="D246" t="s">
-        <v>1490</v>
+        <v>1469</v>
       </c>
       <c r="E246" t="s">
-        <v>1491</v>
+        <v>1470</v>
       </c>
       <c r="F246" t="s">
-        <v>1492</v>
+        <v>1471</v>
       </c>
       <c r="G246" t="s">
-        <v>1493</v>
+        <v>1472</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -16923,25 +16929,25 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1494</v>
+        <v>1473</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="C247" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="D247" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="E247" t="s">
-        <v>1497</v>
+        <v>1476</v>
       </c>
       <c r="F247" t="s">
-        <v>1498</v>
+        <v>1477</v>
       </c>
       <c r="G247" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -16971,25 +16977,25 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1500</v>
+        <v>1479</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="C248" t="s">
-        <v>1502</v>
+        <v>1481</v>
       </c>
       <c r="D248" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="E248" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="F248" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="G248" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -17019,25 +17025,25 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1506</v>
+        <v>1485</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1507</v>
+        <v>1486</v>
       </c>
       <c r="C249" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1509</v>
+        <v>1488</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="F249" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -17067,25 +17073,25 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1513</v>
+        <v>1492</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="C250" t="s">
-        <v>1515</v>
+        <v>1494</v>
       </c>
       <c r="D250" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="E250" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
       <c r="F250" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="G250" t="s">
-        <v>1518</v>
+        <v>1497</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -17115,25 +17121,25 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1519</v>
+        <v>1498</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="C251" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="D251" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="E251" t="s">
-        <v>1523</v>
+        <v>1502</v>
       </c>
       <c r="F251" t="s">
-        <v>1524</v>
+        <v>1503</v>
       </c>
       <c r="G251" t="s">
-        <v>1525</v>
+        <v>1504</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -17163,25 +17169,25 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="C252" t="s">
-        <v>1528</v>
+        <v>1507</v>
       </c>
       <c r="D252" t="s">
-        <v>1529</v>
+        <v>1508</v>
       </c>
       <c r="E252" t="s">
-        <v>1530</v>
+        <v>1509</v>
       </c>
       <c r="F252" t="s">
-        <v>1531</v>
+        <v>1510</v>
       </c>
       <c r="G252" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -17211,25 +17217,25 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1536</v>
+        <v>1515</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>1538</v>
+        <v>1516</v>
       </c>
       <c r="G253" t="s">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -17259,13 +17265,13 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>1541</v>
+        <v>1519</v>
       </c>
     </row>
   </sheetData>
